--- a/src/productos_mercadolibre.xlsx
+++ b/src/productos_mercadolibre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tendo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Derik\WebScraping\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9E46FC-F234-4FD4-B22C-9C08934E3598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F7343F-34A7-4949-A87A-1609FAAEE2DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -964,9 +964,6 @@
     <t>Es 2.5 Es 300h</t>
   </si>
   <si>
-    <t>Inteligente Y Divertida</t>
-  </si>
-  <si>
     <t>Trimoto 100% Electrica Spira 4u</t>
   </si>
   <si>
@@ -1445,6 +1442,9 @@
   </si>
   <si>
     <t>Serie M 3.0 M4 Coupe At</t>
+  </si>
+  <si>
+    <t>BMVV</t>
   </si>
 </sst>
 </file>
@@ -1855,18 +1855,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F244" sqref="F244"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="80.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="80.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -2328,18 +2328,18 @@
         <v>313</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -2347,10 +2347,10 @@
         <v>211</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -2358,10 +2358,10 @@
         <v>309</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -2369,10 +2369,10 @@
         <v>230</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -2380,10 +2380,10 @@
         <v>309</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -2391,10 +2391,10 @@
         <v>217</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -2402,10 +2402,10 @@
         <v>217</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -2413,10 +2413,10 @@
         <v>213</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -2424,10 +2424,10 @@
         <v>236</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>11</v>
       </c>
@@ -2435,21 +2435,21 @@
         <v>234</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>51</v>
       </c>
@@ -2457,10 +2457,10 @@
         <v>213</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>52</v>
       </c>
@@ -2468,10 +2468,10 @@
         <v>236</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>53</v>
       </c>
@@ -2479,10 +2479,10 @@
         <v>238</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>54</v>
       </c>
@@ -2490,10 +2490,10 @@
         <v>220</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>55</v>
       </c>
@@ -2501,21 +2501,21 @@
         <v>217</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>57</v>
       </c>
@@ -2523,10 +2523,10 @@
         <v>228</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>58</v>
       </c>
@@ -2534,10 +2534,10 @@
         <v>230</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>59</v>
       </c>
@@ -2545,10 +2545,10 @@
         <v>234</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>60</v>
       </c>
@@ -2556,10 +2556,10 @@
         <v>234</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>61</v>
       </c>
@@ -2567,10 +2567,10 @@
         <v>234</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>62</v>
       </c>
@@ -2578,21 +2578,21 @@
         <v>249</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>64</v>
       </c>
@@ -2600,10 +2600,10 @@
         <v>249</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>65</v>
       </c>
@@ -2611,10 +2611,10 @@
         <v>211</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>66</v>
       </c>
@@ -2622,21 +2622,21 @@
         <v>213</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>68</v>
       </c>
@@ -2644,21 +2644,21 @@
         <v>230</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>70</v>
       </c>
@@ -2666,10 +2666,10 @@
         <v>230</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>71</v>
       </c>
@@ -2677,10 +2677,10 @@
         <v>224</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>72</v>
       </c>
@@ -2688,10 +2688,10 @@
         <v>249</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>73</v>
       </c>
@@ -2699,32 +2699,32 @@
         <v>217</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>76</v>
       </c>
@@ -2732,10 +2732,10 @@
         <v>217</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>77</v>
       </c>
@@ -2743,10 +2743,10 @@
         <v>217</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>78</v>
       </c>
@@ -2754,21 +2754,21 @@
         <v>222</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
@@ -2776,10 +2776,10 @@
         <v>213</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>81</v>
       </c>
@@ -2787,10 +2787,10 @@
         <v>213</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>82</v>
       </c>
@@ -2798,10 +2798,10 @@
         <v>224</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>83</v>
       </c>
@@ -2809,21 +2809,21 @@
         <v>220</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>85</v>
       </c>
@@ -2831,10 +2831,10 @@
         <v>213</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>81</v>
       </c>
@@ -2842,10 +2842,10 @@
         <v>249</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>86</v>
       </c>
@@ -2853,10 +2853,10 @@
         <v>224</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>87</v>
       </c>
@@ -2864,21 +2864,21 @@
         <v>224</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>89</v>
       </c>
@@ -2886,10 +2886,10 @@
         <v>266</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>90</v>
       </c>
@@ -2897,21 +2897,21 @@
         <v>249</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>92</v>
       </c>
@@ -2919,10 +2919,10 @@
         <v>211</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>93</v>
       </c>
@@ -2930,10 +2930,10 @@
         <v>211</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>93</v>
       </c>
@@ -2941,10 +2941,10 @@
         <v>266</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>94</v>
       </c>
@@ -2952,10 +2952,10 @@
         <v>226</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>95</v>
       </c>
@@ -2963,10 +2963,10 @@
         <v>220</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>96</v>
       </c>
@@ -2974,21 +2974,21 @@
         <v>241</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>98</v>
       </c>
@@ -2996,21 +2996,21 @@
         <v>220</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>15</v>
       </c>
@@ -3018,10 +3018,10 @@
         <v>228</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>100</v>
       </c>
@@ -3029,10 +3029,10 @@
         <v>222</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>101</v>
       </c>
@@ -3040,10 +3040,10 @@
         <v>236</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>102</v>
       </c>
@@ -3051,10 +3051,10 @@
         <v>215</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>103</v>
       </c>
@@ -3062,10 +3062,10 @@
         <v>249</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>104</v>
       </c>
@@ -3073,10 +3073,10 @@
         <v>222</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>105</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>106</v>
       </c>
@@ -3095,10 +3095,10 @@
         <v>226</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>107</v>
       </c>
@@ -3106,10 +3106,10 @@
         <v>213</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>108</v>
       </c>
@@ -3120,18 +3120,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>110</v>
       </c>
@@ -3139,10 +3139,10 @@
         <v>224</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>111</v>
       </c>
@@ -3150,10 +3150,10 @@
         <v>230</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>112</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>113</v>
       </c>
@@ -3172,10 +3172,10 @@
         <v>236</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>114</v>
       </c>
@@ -3183,10 +3183,10 @@
         <v>220</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>115</v>
       </c>
@@ -3194,10 +3194,10 @@
         <v>217</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>116</v>
       </c>
@@ -3205,10 +3205,10 @@
         <v>217</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>117</v>
       </c>
@@ -3216,21 +3216,21 @@
         <v>230</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>119</v>
       </c>
@@ -3238,10 +3238,10 @@
         <v>226</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>120</v>
       </c>
@@ -3249,10 +3249,10 @@
         <v>217</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>121</v>
       </c>
@@ -3260,10 +3260,10 @@
         <v>220</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>122</v>
       </c>
@@ -3271,21 +3271,21 @@
         <v>241</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B129" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C129" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>124</v>
       </c>
@@ -3293,10 +3293,10 @@
         <v>224</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>124</v>
       </c>
@@ -3304,10 +3304,10 @@
         <v>224</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>125</v>
       </c>
@@ -3315,10 +3315,10 @@
         <v>230</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>126</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>127</v>
       </c>
@@ -3337,10 +3337,10 @@
         <v>238</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>128</v>
       </c>
@@ -3348,10 +3348,10 @@
         <v>213</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>129</v>
       </c>
@@ -3359,10 +3359,10 @@
         <v>215</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>130</v>
       </c>
@@ -3370,21 +3370,21 @@
         <v>230</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>132</v>
       </c>
@@ -3392,21 +3392,21 @@
         <v>213</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>134</v>
       </c>
@@ -3414,32 +3414,32 @@
         <v>226</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B143" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C143" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C143" s="5" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>137</v>
       </c>
@@ -3447,10 +3447,10 @@
         <v>213</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>138</v>
       </c>
@@ -3458,10 +3458,10 @@
         <v>307</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>139</v>
       </c>
@@ -3469,10 +3469,10 @@
         <v>217</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>140</v>
       </c>
@@ -3480,21 +3480,21 @@
         <v>222</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="C148" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>142</v>
       </c>
@@ -3502,10 +3502,10 @@
         <v>220</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>143</v>
       </c>
@@ -3513,10 +3513,10 @@
         <v>220</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>144</v>
       </c>
@@ -3524,10 +3524,10 @@
         <v>249</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>145</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>146</v>
       </c>
@@ -3546,10 +3546,10 @@
         <v>241</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>147</v>
       </c>
@@ -3557,10 +3557,10 @@
         <v>211</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>148</v>
       </c>
@@ -3568,10 +3568,10 @@
         <v>230</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>149</v>
       </c>
@@ -3579,32 +3579,32 @@
         <v>213</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B157" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C157" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="C157" s="5" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>151</v>
       </c>
@@ -3612,10 +3612,10 @@
         <v>220</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>152</v>
       </c>
@@ -3623,10 +3623,10 @@
         <v>252</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>153</v>
       </c>
@@ -3634,10 +3634,10 @@
         <v>222</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>154</v>
       </c>
@@ -3645,10 +3645,10 @@
         <v>224</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>155</v>
       </c>
@@ -3656,10 +3656,10 @@
         <v>220</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>156</v>
       </c>
@@ -3667,10 +3667,10 @@
         <v>249</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>157</v>
       </c>
@@ -3678,10 +3678,10 @@
         <v>211</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>158</v>
       </c>
@@ -3689,21 +3689,21 @@
         <v>249</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>160</v>
       </c>
@@ -3711,10 +3711,10 @@
         <v>249</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>161</v>
       </c>
@@ -3722,10 +3722,10 @@
         <v>222</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>155</v>
       </c>
@@ -3733,10 +3733,10 @@
         <v>220</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>162</v>
       </c>
@@ -3744,21 +3744,21 @@
         <v>220</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>162</v>
       </c>
@@ -3766,10 +3766,10 @@
         <v>222</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>162</v>
       </c>
@@ -3777,21 +3777,21 @@
         <v>226</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B175" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="C175" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>164</v>
       </c>
@@ -3799,10 +3799,10 @@
         <v>312</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>163</v>
       </c>
@@ -3810,10 +3810,10 @@
         <v>215</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>165</v>
       </c>
@@ -3821,10 +3821,10 @@
         <v>215</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>166</v>
       </c>
@@ -3832,10 +3832,10 @@
         <v>249</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>167</v>
       </c>
@@ -3843,10 +3843,10 @@
         <v>222</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>168</v>
       </c>
@@ -3854,32 +3854,32 @@
         <v>249</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B183" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C183" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C183" s="5" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>170</v>
       </c>
@@ -3887,32 +3887,32 @@
         <v>211</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B185" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C185" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C185" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>173</v>
       </c>
@@ -3920,10 +3920,10 @@
         <v>236</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>173</v>
       </c>
@@ -3931,10 +3931,10 @@
         <v>220</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>173</v>
       </c>
@@ -3942,10 +3942,10 @@
         <v>215</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>15</v>
       </c>
@@ -3953,10 +3953,10 @@
         <v>217</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>174</v>
       </c>
@@ -3964,10 +3964,10 @@
         <v>241</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>15</v>
       </c>
@@ -3975,21 +3975,21 @@
         <v>220</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>176</v>
       </c>
@@ -3997,10 +3997,10 @@
         <v>220</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>149</v>
       </c>
@@ -4008,32 +4008,32 @@
         <v>220</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>178</v>
       </c>
@@ -4041,10 +4041,10 @@
         <v>230</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>179</v>
       </c>
@@ -4052,10 +4052,10 @@
         <v>224</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>180</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>181</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>182</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>183</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>184</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>185</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>186</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>187</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>109</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>141</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>120</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>188</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>189</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>190</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>191</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>192</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>193</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>106</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>194</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>85</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>195</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>196</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>197</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>198</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>134</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>134</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>199</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>126</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>200</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>165</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>201</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>126</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>202</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>202</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>203</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>204</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>205</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>66</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>206</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>207</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>208</v>
       </c>
@@ -4506,3044 +4506,3044 @@
         <v>268</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="2"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
     </row>
-    <row r="242" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
     </row>
-    <row r="243" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
     </row>
-    <row r="244" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
     </row>
-    <row r="245" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
     </row>
-    <row r="246" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
     </row>
-    <row r="247" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
     </row>
-    <row r="248" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
     </row>
-    <row r="249" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
     </row>
-    <row r="250" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
     </row>
-    <row r="251" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
     </row>
-    <row r="252" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
     </row>
-    <row r="253" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
     </row>
-    <row r="254" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
     </row>
-    <row r="255" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
     </row>
-    <row r="256" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
     </row>
-    <row r="257" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
     </row>
-    <row r="258" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
     </row>
-    <row r="259" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
     </row>
-    <row r="260" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
     </row>
-    <row r="261" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
     </row>
-    <row r="262" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
     </row>
-    <row r="263" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
     </row>
-    <row r="264" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
     </row>
-    <row r="265" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
     </row>
-    <row r="266" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
     </row>
-    <row r="267" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
     </row>
-    <row r="268" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
     </row>
-    <row r="269" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
     </row>
-    <row r="270" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
     </row>
-    <row r="271" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
     </row>
-    <row r="272" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
     </row>
-    <row r="273" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
     </row>
-    <row r="274" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
     </row>
-    <row r="275" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
     </row>
-    <row r="276" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
     </row>
-    <row r="277" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
     </row>
-    <row r="278" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
     </row>
-    <row r="279" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
     </row>
-    <row r="280" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
     </row>
-    <row r="281" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
     </row>
-    <row r="282" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
     </row>
-    <row r="283" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
     </row>
-    <row r="284" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
     </row>
-    <row r="285" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
     </row>
-    <row r="286" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
     </row>
-    <row r="287" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
     </row>
-    <row r="288" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
     </row>
-    <row r="289" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
     </row>
-    <row r="290" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
     </row>
-    <row r="291" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
     </row>
-    <row r="292" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
     </row>
-    <row r="293" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
     </row>
-    <row r="294" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
     </row>
-    <row r="295" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
     </row>
-    <row r="296" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
     </row>
-    <row r="297" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
     </row>
-    <row r="298" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
     </row>
-    <row r="299" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
     </row>
-    <row r="300" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
     </row>
-    <row r="301" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
     </row>
-    <row r="302" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
     </row>
-    <row r="303" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
     </row>
-    <row r="304" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
     </row>
-    <row r="305" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
     </row>
-    <row r="306" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
     </row>
-    <row r="307" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
     </row>
-    <row r="308" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
     </row>
-    <row r="309" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
     </row>
-    <row r="310" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
     </row>
-    <row r="311" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
     </row>
-    <row r="312" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
     </row>
-    <row r="313" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
     </row>
-    <row r="314" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
     </row>
-    <row r="315" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
     </row>
-    <row r="316" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
     </row>
-    <row r="317" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
     </row>
-    <row r="318" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
     </row>
-    <row r="319" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
     </row>
-    <row r="320" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
     </row>
-    <row r="321" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
     </row>
-    <row r="322" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
     </row>
-    <row r="323" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
     </row>
-    <row r="324" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
     </row>
-    <row r="325" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
     </row>
-    <row r="326" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
     </row>
-    <row r="327" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
     </row>
-    <row r="328" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
     </row>
-    <row r="329" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
     </row>
-    <row r="330" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
     </row>
-    <row r="331" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
     </row>
-    <row r="332" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
     </row>
-    <row r="333" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
     </row>
-    <row r="334" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
     </row>
-    <row r="335" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
     </row>
-    <row r="336" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
     </row>
-    <row r="337" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
     </row>
-    <row r="338" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
     </row>
-    <row r="339" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
     </row>
-    <row r="340" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
     </row>
-    <row r="341" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
     </row>
-    <row r="342" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
     </row>
-    <row r="343" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
     </row>
-    <row r="344" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
     </row>
-    <row r="345" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
     </row>
-    <row r="346" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
     </row>
-    <row r="347" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
     </row>
-    <row r="348" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
     </row>
-    <row r="349" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
     </row>
-    <row r="350" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
     </row>
-    <row r="351" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
     </row>
-    <row r="352" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
     </row>
-    <row r="353" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
     </row>
-    <row r="354" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
     </row>
-    <row r="355" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
     </row>
-    <row r="356" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
     </row>
-    <row r="357" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
     </row>
-    <row r="358" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
     </row>
-    <row r="359" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
     </row>
-    <row r="360" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
     </row>
-    <row r="361" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
     </row>
-    <row r="362" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
     </row>
-    <row r="363" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
     </row>
-    <row r="364" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
     </row>
-    <row r="365" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
     </row>
-    <row r="366" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
     </row>
-    <row r="367" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
     </row>
-    <row r="368" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
     </row>
-    <row r="369" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
     </row>
-    <row r="370" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
     </row>
-    <row r="371" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
     </row>
-    <row r="372" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
     </row>
-    <row r="373" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
     </row>
-    <row r="374" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
     </row>
-    <row r="375" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
     </row>
-    <row r="376" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
     </row>
-    <row r="377" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
     </row>
-    <row r="378" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
     </row>
-    <row r="379" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
     </row>
-    <row r="380" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
     </row>
-    <row r="381" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
     </row>
-    <row r="382" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
     </row>
-    <row r="383" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
     </row>
-    <row r="384" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
     </row>
-    <row r="385" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
     </row>
-    <row r="386" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
     </row>
-    <row r="387" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
     </row>
-    <row r="388" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
     </row>
-    <row r="389" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
     </row>
-    <row r="390" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
     </row>
-    <row r="391" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
     </row>
-    <row r="392" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
     </row>
-    <row r="393" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
     </row>
-    <row r="394" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
     </row>
-    <row r="395" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
     </row>
-    <row r="396" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
     </row>
-    <row r="397" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
     </row>
-    <row r="398" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
     </row>
-    <row r="399" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
     </row>
-    <row r="400" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
     </row>
-    <row r="401" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
     </row>
-    <row r="402" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
     </row>
-    <row r="403" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
     </row>
-    <row r="404" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
     </row>
-    <row r="405" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
     </row>
-    <row r="406" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
     </row>
-    <row r="407" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
     </row>
-    <row r="408" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
     </row>
-    <row r="409" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
     </row>
-    <row r="410" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
     </row>
-    <row r="411" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
     </row>
-    <row r="412" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
     </row>
-    <row r="413" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
     </row>
-    <row r="414" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
     </row>
-    <row r="415" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
     </row>
-    <row r="416" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
     </row>
-    <row r="417" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
     </row>
-    <row r="418" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
     </row>
-    <row r="419" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
     </row>
-    <row r="420" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
     </row>
-    <row r="421" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
     </row>
-    <row r="422" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
     </row>
-    <row r="423" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
     </row>
-    <row r="424" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
     </row>
-    <row r="425" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
     </row>
-    <row r="426" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
     </row>
-    <row r="427" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
     </row>
-    <row r="428" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
     </row>
-    <row r="429" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
     </row>
-    <row r="430" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
     </row>
-    <row r="431" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
     </row>
-    <row r="432" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
     </row>
-    <row r="433" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
     </row>
-    <row r="434" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
     </row>
-    <row r="435" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
     </row>
-    <row r="436" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
     </row>
-    <row r="437" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
     </row>
-    <row r="438" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
     </row>
-    <row r="439" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
     </row>
-    <row r="440" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
     </row>
-    <row r="441" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
     </row>
-    <row r="442" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
     </row>
-    <row r="443" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
     </row>
-    <row r="444" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
     </row>
-    <row r="445" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
     </row>
-    <row r="446" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
     </row>
-    <row r="447" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
     </row>
-    <row r="448" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
     </row>
-    <row r="449" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
     </row>
-    <row r="450" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
     </row>
-    <row r="451" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
     </row>
-    <row r="452" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
     </row>
-    <row r="453" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
     </row>
-    <row r="454" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
     </row>
-    <row r="455" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
     </row>
-    <row r="456" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
     </row>
-    <row r="457" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
     </row>
-    <row r="458" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
     </row>
-    <row r="459" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
     </row>
-    <row r="460" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
     </row>
-    <row r="461" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
     </row>
-    <row r="462" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
     </row>
-    <row r="463" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
     </row>
-    <row r="464" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
     </row>
-    <row r="465" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
     </row>
-    <row r="466" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
     </row>
-    <row r="467" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
     </row>
-    <row r="468" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
     </row>
-    <row r="469" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
     </row>
-    <row r="470" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
     </row>
-    <row r="471" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
     </row>
-    <row r="472" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
     </row>
-    <row r="473" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
     </row>
-    <row r="474" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
     </row>
-    <row r="475" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
     </row>
-    <row r="476" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
     </row>
-    <row r="477" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
     </row>
-    <row r="478" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
     </row>
-    <row r="479" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
     </row>
-    <row r="480" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
     </row>
-    <row r="481" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
     </row>
-    <row r="482" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
     </row>
-    <row r="483" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
     </row>
-    <row r="484" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
     </row>
-    <row r="485" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
     </row>
-    <row r="486" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
     </row>
-    <row r="487" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
     </row>
-    <row r="488" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
     </row>
-    <row r="489" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
     </row>
-    <row r="490" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
     </row>
-    <row r="491" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
     </row>
-    <row r="492" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
     </row>
-    <row r="493" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
     </row>
-    <row r="494" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
     </row>
-    <row r="495" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
     </row>
-    <row r="496" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
     </row>
-    <row r="497" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
     </row>
-    <row r="498" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
     </row>
-    <row r="499" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
     </row>
-    <row r="500" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
     </row>
-    <row r="501" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
     </row>
-    <row r="502" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
     </row>
-    <row r="503" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
     </row>
-    <row r="504" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
     </row>
-    <row r="505" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
     </row>
-    <row r="506" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
     </row>
-    <row r="507" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
     </row>
-    <row r="508" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
     </row>
-    <row r="509" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
     </row>
-    <row r="510" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
     </row>
-    <row r="511" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
     </row>
-    <row r="512" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
     </row>
-    <row r="513" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
     </row>
-    <row r="514" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
     </row>
-    <row r="515" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
     </row>
-    <row r="516" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
     </row>
-    <row r="517" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
     </row>
-    <row r="518" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
     </row>
-    <row r="519" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
     </row>
-    <row r="520" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
     </row>
-    <row r="521" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
     </row>
-    <row r="522" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
     </row>
-    <row r="523" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
     </row>
-    <row r="524" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
     </row>
-    <row r="525" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
     </row>
-    <row r="526" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
     </row>
-    <row r="527" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
     </row>
-    <row r="528" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
     </row>
-    <row r="529" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
     </row>
-    <row r="530" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
     </row>
-    <row r="531" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
     </row>
-    <row r="532" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
     </row>
-    <row r="533" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
     </row>
-    <row r="534" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
     </row>
-    <row r="535" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
     </row>
-    <row r="536" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
     </row>
-    <row r="537" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
     </row>
-    <row r="538" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
     </row>
-    <row r="539" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
     </row>
-    <row r="540" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
     </row>
-    <row r="541" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
     </row>
-    <row r="542" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
     </row>
-    <row r="543" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
     </row>
-    <row r="544" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
     </row>
-    <row r="545" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
     </row>
-    <row r="546" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
     </row>
-    <row r="547" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
     </row>
-    <row r="548" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
     </row>
-    <row r="549" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
     </row>
-    <row r="550" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
     </row>
-    <row r="551" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
     </row>
-    <row r="552" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
     </row>
-    <row r="553" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
     </row>
-    <row r="554" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
     </row>
-    <row r="555" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
     </row>
-    <row r="556" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
     </row>
-    <row r="557" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
     </row>
-    <row r="558" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
     </row>
-    <row r="559" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
     </row>
-    <row r="560" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
     </row>
-    <row r="561" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
     </row>
-    <row r="562" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
     </row>
-    <row r="563" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
     </row>
-    <row r="564" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
     </row>
-    <row r="565" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
     </row>
-    <row r="566" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
     </row>
-    <row r="567" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
     </row>
-    <row r="568" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
     </row>
-    <row r="569" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
     </row>
-    <row r="570" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
     </row>
-    <row r="571" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
     </row>
-    <row r="572" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
     </row>
-    <row r="573" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
     </row>
-    <row r="574" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
     </row>
-    <row r="575" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
     </row>
-    <row r="576" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
     </row>
-    <row r="577" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
     </row>
-    <row r="578" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
     </row>
-    <row r="579" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
     </row>
-    <row r="580" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
     </row>
-    <row r="581" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
     </row>
-    <row r="582" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
     </row>
-    <row r="583" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
     </row>
-    <row r="584" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
     </row>
-    <row r="585" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
     </row>
-    <row r="586" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
     </row>
-    <row r="587" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
     </row>
-    <row r="588" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
     </row>
-    <row r="589" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
     </row>
-    <row r="590" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
     </row>
-    <row r="591" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
     </row>
-    <row r="592" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
     </row>
-    <row r="593" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
     </row>
-    <row r="594" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
     </row>
-    <row r="595" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
     </row>
-    <row r="596" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
     </row>
-    <row r="597" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
     </row>
-    <row r="598" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
     </row>
-    <row r="599" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
     </row>
-    <row r="600" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
     </row>
-    <row r="601" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
     </row>
-    <row r="602" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
     </row>
-    <row r="603" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
     </row>
-    <row r="604" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
     </row>
-    <row r="605" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
     </row>
-    <row r="606" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
     </row>
-    <row r="607" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
     </row>
-    <row r="608" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
     </row>
-    <row r="609" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
     </row>
-    <row r="610" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
     </row>
-    <row r="611" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
     </row>
-    <row r="612" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
     </row>
-    <row r="613" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
     </row>
-    <row r="614" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
     </row>
-    <row r="615" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
     </row>
-    <row r="616" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
     </row>
-    <row r="617" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
     </row>
-    <row r="618" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
     </row>
-    <row r="619" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
     </row>
-    <row r="620" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
     </row>
-    <row r="621" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
     </row>
-    <row r="622" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
     </row>
-    <row r="623" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
     </row>
-    <row r="624" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
     </row>
-    <row r="625" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
     </row>
-    <row r="626" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
     </row>
-    <row r="627" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
     </row>
-    <row r="628" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
     </row>
-    <row r="629" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
     </row>
-    <row r="630" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
     </row>
-    <row r="631" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
     </row>
-    <row r="632" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
     </row>
-    <row r="633" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
     </row>
-    <row r="634" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
     </row>
-    <row r="635" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
     </row>
-    <row r="636" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
     </row>
-    <row r="637" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
     </row>
-    <row r="638" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
     </row>
-    <row r="639" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
     </row>
-    <row r="640" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
     </row>
-    <row r="641" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
     </row>
-    <row r="642" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
     </row>
-    <row r="643" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
     </row>
-    <row r="644" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
     </row>
-    <row r="645" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
     </row>
-    <row r="646" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
     </row>
-    <row r="647" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
     </row>
-    <row r="648" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
     </row>
-    <row r="649" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
     </row>
-    <row r="650" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
     </row>
-    <row r="651" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
     </row>
-    <row r="652" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
     </row>
-    <row r="653" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
     </row>
-    <row r="654" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
     </row>
-    <row r="655" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
     </row>
-    <row r="656" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
     </row>
-    <row r="657" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
     </row>
-    <row r="658" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
     </row>
-    <row r="659" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
     </row>
-    <row r="660" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
     </row>
-    <row r="661" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
     </row>
-    <row r="662" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
     </row>
-    <row r="663" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
     </row>
-    <row r="664" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
     </row>
-    <row r="665" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
     </row>
-    <row r="666" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
     </row>
-    <row r="667" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
     </row>
-    <row r="668" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
     </row>
-    <row r="669" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
     </row>
-    <row r="670" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
     </row>
-    <row r="671" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
     </row>
-    <row r="672" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
     </row>
-    <row r="673" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
     </row>
-    <row r="674" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
     </row>
-    <row r="675" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
     </row>
-    <row r="676" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
     </row>
-    <row r="677" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
     </row>
-    <row r="678" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
     </row>
-    <row r="679" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
     </row>
-    <row r="680" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
     </row>
-    <row r="681" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
     </row>
-    <row r="682" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
     </row>
-    <row r="683" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
     </row>
-    <row r="684" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
     </row>
-    <row r="685" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
     </row>
-    <row r="686" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
     </row>
-    <row r="687" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
     </row>
-    <row r="688" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
     </row>
-    <row r="689" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
     </row>
-    <row r="690" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
     </row>
-    <row r="691" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
     </row>
-    <row r="692" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
     </row>
-    <row r="693" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
     </row>
-    <row r="694" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
     </row>
-    <row r="695" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
     </row>
-    <row r="696" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
     </row>
-    <row r="697" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
     </row>
-    <row r="698" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
     </row>
-    <row r="699" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
     </row>
-    <row r="700" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
     </row>
-    <row r="701" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
     </row>
-    <row r="702" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
     </row>
-    <row r="703" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
     </row>
-    <row r="704" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
     </row>
-    <row r="705" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
     </row>
-    <row r="706" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
     </row>
-    <row r="707" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
     </row>
-    <row r="708" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
     </row>
-    <row r="709" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
     </row>
-    <row r="710" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
     </row>
-    <row r="711" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
     </row>
-    <row r="712" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
     </row>
-    <row r="713" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
     </row>
-    <row r="714" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
     </row>
-    <row r="715" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
     </row>
-    <row r="716" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
     </row>
-    <row r="717" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
     </row>
-    <row r="718" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
     </row>
-    <row r="719" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
     </row>
-    <row r="720" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
     </row>
-    <row r="721" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
     </row>
-    <row r="722" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
     </row>
-    <row r="723" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
     </row>
-    <row r="724" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
     </row>
-    <row r="725" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
     </row>
-    <row r="726" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
     </row>
-    <row r="727" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
     </row>
-    <row r="728" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
     </row>
-    <row r="729" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
     </row>
-    <row r="730" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
     </row>
-    <row r="731" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
     </row>
-    <row r="732" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
     </row>
-    <row r="733" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
     </row>
-    <row r="734" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
     </row>
-    <row r="735" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
     </row>
-    <row r="736" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
     </row>
-    <row r="737" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
     </row>
-    <row r="738" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
     </row>
-    <row r="739" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
     </row>
-    <row r="740" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
     </row>
-    <row r="741" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
     </row>
-    <row r="742" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
     </row>
-    <row r="743" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
     </row>
-    <row r="744" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
     </row>
-    <row r="745" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
     </row>
-    <row r="746" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
     </row>
-    <row r="747" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
     </row>
-    <row r="748" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
     </row>
-    <row r="749" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
     </row>
-    <row r="750" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
     </row>
-    <row r="751" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
     </row>
-    <row r="752" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
     </row>
-    <row r="753" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
     </row>
-    <row r="754" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
     </row>
-    <row r="755" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
     </row>
-    <row r="756" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
     </row>
-    <row r="757" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
     </row>
-    <row r="758" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
     </row>
-    <row r="759" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
     </row>
-    <row r="760" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
     </row>
-    <row r="761" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
     </row>
-    <row r="762" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
     </row>
-    <row r="763" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
     </row>
-    <row r="764" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
     </row>
-    <row r="765" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
     </row>
-    <row r="766" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
     </row>
-    <row r="767" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
     </row>
-    <row r="768" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
     </row>
-    <row r="769" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
     </row>
-    <row r="770" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
     </row>
-    <row r="771" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
     </row>
-    <row r="772" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
     </row>
-    <row r="773" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
     </row>
-    <row r="774" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
     </row>
-    <row r="775" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
     </row>
-    <row r="776" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
     </row>
-    <row r="777" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
     </row>
-    <row r="778" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
     </row>
-    <row r="779" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
     </row>
-    <row r="780" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
     </row>
-    <row r="781" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
     </row>
-    <row r="782" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
     </row>
-    <row r="783" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
     </row>
-    <row r="784" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
     </row>
-    <row r="785" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
     </row>
-    <row r="786" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
     </row>
-    <row r="787" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
     </row>
-    <row r="788" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
     </row>
-    <row r="789" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
     </row>
-    <row r="790" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
     </row>
-    <row r="791" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
     </row>
-    <row r="792" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
     </row>
-    <row r="793" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
     </row>
-    <row r="794" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
     </row>
-    <row r="795" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
     </row>
-    <row r="796" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
     </row>
-    <row r="797" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
     </row>
-    <row r="798" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
     </row>
-    <row r="799" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
     </row>
-    <row r="800" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
     </row>
-    <row r="801" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
     </row>
-    <row r="802" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
     </row>
-    <row r="803" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
     </row>
-    <row r="804" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
     </row>
-    <row r="805" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
     </row>
-    <row r="806" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
     </row>
-    <row r="807" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
     </row>
-    <row r="808" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
     </row>
-    <row r="809" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
     </row>
-    <row r="810" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
     </row>
-    <row r="811" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
     </row>
-    <row r="812" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
     </row>
-    <row r="813" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
     </row>
-    <row r="814" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
     </row>
-    <row r="815" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
     </row>
-    <row r="816" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
     </row>
-    <row r="817" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
     </row>
-    <row r="818" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
     </row>
-    <row r="819" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
     </row>
-    <row r="820" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
     </row>
-    <row r="821" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
     </row>
-    <row r="822" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
     </row>
-    <row r="823" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
     </row>
-    <row r="824" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
     </row>
-    <row r="825" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
     </row>
-    <row r="826" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
     </row>
-    <row r="827" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
     </row>
-    <row r="828" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
     </row>
-    <row r="829" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
     </row>
-    <row r="830" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
     </row>
-    <row r="831" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
     </row>
-    <row r="832" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
     </row>
-    <row r="833" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
     </row>
-    <row r="834" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
     </row>
-    <row r="835" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
     </row>
-    <row r="836" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
     </row>
-    <row r="837" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
     </row>
-    <row r="838" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
     </row>
-    <row r="839" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
     </row>
-    <row r="840" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
     </row>
-    <row r="841" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
     </row>
-    <row r="842" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
     </row>
-    <row r="843" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
     </row>
-    <row r="844" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
     </row>
-    <row r="845" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
     </row>
-    <row r="846" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
     </row>
-    <row r="847" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
     </row>
-    <row r="848" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
     </row>
-    <row r="849" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
     </row>
-    <row r="850" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
     </row>
-    <row r="851" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
     </row>
-    <row r="852" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
     </row>
-    <row r="853" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
     </row>
-    <row r="854" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
     </row>
-    <row r="855" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
     </row>
-    <row r="856" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
     </row>
-    <row r="857" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
     </row>
-    <row r="858" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
     </row>
-    <row r="859" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
     </row>
-    <row r="860" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
     </row>
-    <row r="861" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
     </row>
-    <row r="862" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
     </row>
-    <row r="863" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
     </row>
-    <row r="864" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
     </row>
-    <row r="865" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
     </row>
-    <row r="866" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
     </row>
-    <row r="867" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
     </row>
-    <row r="868" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
     </row>
-    <row r="869" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
     </row>
-    <row r="870" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
     </row>
-    <row r="871" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
     </row>
-    <row r="872" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
     </row>
-    <row r="873" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
     </row>
-    <row r="874" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
     </row>
-    <row r="875" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
     </row>
-    <row r="876" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
     </row>
-    <row r="877" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
     </row>
-    <row r="878" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
     </row>
-    <row r="879" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
     </row>
-    <row r="880" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
     </row>
-    <row r="881" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
     </row>
-    <row r="882" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
     </row>
-    <row r="883" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
     </row>
-    <row r="884" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
     </row>
-    <row r="885" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
     </row>
-    <row r="886" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
     </row>
-    <row r="887" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
     </row>
-    <row r="888" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
     </row>
-    <row r="889" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
     </row>
-    <row r="890" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
     </row>
-    <row r="891" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
     </row>
-    <row r="892" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
     </row>
-    <row r="893" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
     </row>
-    <row r="894" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
     </row>
-    <row r="895" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
     </row>
-    <row r="896" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
     </row>
-    <row r="897" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
     </row>
-    <row r="898" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
     </row>
-    <row r="899" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
     </row>
-    <row r="900" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
     </row>
-    <row r="901" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
     </row>
-    <row r="902" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
     </row>
-    <row r="903" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
     </row>
-    <row r="904" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
     </row>
-    <row r="905" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
     </row>
-    <row r="906" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
     </row>
-    <row r="907" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
     </row>
-    <row r="908" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
     </row>
-    <row r="909" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
     </row>
-    <row r="910" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
     </row>
-    <row r="911" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
     </row>
-    <row r="912" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
     </row>
-    <row r="913" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
     </row>
-    <row r="914" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
     </row>
-    <row r="915" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
     </row>
-    <row r="916" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
     </row>
-    <row r="917" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
     </row>
-    <row r="918" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
     </row>
-    <row r="919" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
     </row>
-    <row r="920" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
     </row>
-    <row r="921" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
     </row>
-    <row r="922" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
     </row>
-    <row r="923" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
     </row>
-    <row r="924" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
     </row>
-    <row r="925" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
     </row>
-    <row r="926" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
     </row>
-    <row r="927" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
     </row>
-    <row r="928" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
     </row>
-    <row r="929" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
     </row>
-    <row r="930" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
     </row>
-    <row r="931" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
     </row>
-    <row r="932" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
     </row>
-    <row r="933" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
     </row>
-    <row r="934" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
     </row>
-    <row r="935" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
     </row>
-    <row r="936" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
     </row>
-    <row r="937" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
     </row>
-    <row r="938" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
     </row>
-    <row r="939" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
     </row>
-    <row r="940" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
     </row>
-    <row r="941" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
     </row>
-    <row r="942" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
     </row>
-    <row r="943" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
     </row>
-    <row r="944" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
     </row>
-    <row r="945" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
     </row>
-    <row r="946" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
     </row>
-    <row r="947" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
     </row>
-    <row r="948" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
     </row>
-    <row r="949" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
     </row>
-    <row r="950" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
     </row>
-    <row r="951" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
     </row>
-    <row r="952" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
     </row>
-    <row r="953" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
     </row>
-    <row r="954" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
     </row>
-    <row r="955" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
     </row>
-    <row r="956" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
     </row>
-    <row r="957" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
     </row>
-    <row r="958" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
     </row>
-    <row r="959" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
     </row>
-    <row r="960" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
     </row>
-    <row r="961" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
     </row>
-    <row r="962" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
     </row>
-    <row r="963" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
     </row>
-    <row r="964" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
     </row>
-    <row r="965" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
     </row>
-    <row r="966" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
     </row>
-    <row r="967" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
     </row>
-    <row r="968" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
     </row>
-    <row r="969" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
     </row>
-    <row r="970" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
     </row>
-    <row r="971" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
     </row>
-    <row r="972" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
     </row>
-    <row r="973" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
     </row>
-    <row r="974" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
     </row>
-    <row r="975" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
     </row>
-    <row r="976" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
     </row>
-    <row r="977" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
     </row>
-    <row r="978" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
     </row>
-    <row r="979" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
     </row>
-    <row r="980" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
     </row>
-    <row r="981" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
     </row>
-    <row r="982" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
     </row>
-    <row r="983" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
     </row>
-    <row r="984" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
     </row>
-    <row r="985" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
     </row>
-    <row r="986" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
     </row>
-    <row r="987" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
     </row>
-    <row r="988" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
     </row>
-    <row r="989" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
     </row>
-    <row r="990" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
     </row>
-    <row r="991" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
     </row>
-    <row r="992" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
     </row>
-    <row r="993" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
     </row>
-    <row r="994" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
     </row>
-    <row r="995" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
     </row>
-    <row r="996" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
     </row>
-    <row r="997" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
     </row>
-    <row r="998" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
     </row>
-    <row r="999" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
     </row>
-    <row r="1000" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>
     </row>
